--- a/Allocation/Thaba-Tseka/Semena.xlsx
+++ b/Allocation/Thaba-Tseka/Semena.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="7635" windowHeight="5460" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="7635" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Semena" sheetId="9" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Final!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="1000" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -1209,8 +1209,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1392,6 +1392,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1426,6 +1427,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1601,14 +1603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" customWidth="1"/>
@@ -1616,10 +1618,10 @@
     <col min="4" max="4" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1644,7 +1646,7 @@
         <v>53666585</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75">
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>59947840</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1672,7 +1674,7 @@
         <v>59606968</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1686,12 +1688,12 @@
         <v>57292899</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75">
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75">
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1702,7 +1704,7 @@
         <v>57917006</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1716,7 +1718,7 @@
         <v>56145925</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1730,7 +1732,7 @@
         <v>59491042</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1744,7 +1746,7 @@
         <v>57500761</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1758,12 +1760,12 @@
         <v>59755848</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1771,7 +1773,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1785,7 +1787,7 @@
         <v>59141399</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>59529295</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1813,7 +1815,7 @@
         <v>58574494</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1827,15 +1829,15 @@
         <v>56401599</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="18.75">
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75">
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -1846,7 +1848,7 @@
         <v>50754700</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75">
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -1860,7 +1862,7 @@
         <v>56948835</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>50485124</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1888,7 +1890,7 @@
         <v>57175122</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1902,15 +1904,15 @@
         <v>50320610</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="18.75">
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75">
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>1</v>
       </c>
@@ -1918,7 +1920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75">
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>56143039</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1946,7 +1948,7 @@
         <v>50174651</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1960,7 +1962,7 @@
         <v>56021989</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1974,12 +1976,12 @@
         <v>53304007</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.75">
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.75">
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>1</v>
       </c>
@@ -1990,7 +1992,7 @@
         <v>62177721</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75">
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -2018,7 +2020,7 @@
         <v>58824619</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>59788461</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -2046,7 +2048,7 @@
         <v>56781049</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2054,12 +2056,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.75">
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.75">
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.75">
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>59736214</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>59184623</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2109,7 +2111,7 @@
         <v>56700445</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -2123,12 +2125,12 @@
         <v>57163375</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18.75">
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18.75">
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
@@ -2136,7 +2138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18.75">
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -2150,7 +2152,7 @@
         <v>59214896</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75">
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2164,7 +2166,7 @@
         <v>59168895</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2178,7 +2180,7 @@
         <v>59345147</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75">
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2192,12 +2194,12 @@
         <v>58026771</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18.75">
+    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18.75">
+    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
@@ -2208,7 +2210,7 @@
         <v>56929466</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18.75">
+    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>58577398</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75">
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2236,7 +2238,7 @@
         <v>59423315</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75">
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2250,7 +2252,7 @@
         <v>53062112</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75">
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -2264,12 +2266,12 @@
         <v>50296434</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="18.75">
+    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="18.75">
+    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>1</v>
       </c>
@@ -2280,7 +2282,7 @@
         <v>67143098</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="18.75">
+    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>1</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>59688812</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75">
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2308,7 +2310,7 @@
         <v>56398617</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75">
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2322,7 +2324,7 @@
         <v>59804617</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75">
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -2336,12 +2338,12 @@
         <v>59225555</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18.75">
+    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18.75">
+    <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>1</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>59816547</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="18.75">
+    <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>1</v>
       </c>
@@ -2366,7 +2368,7 @@
         <v>50712825</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75">
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>59507071</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75">
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -2394,7 +2396,7 @@
         <v>59440778</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75">
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2408,12 +2410,12 @@
         <v>53350303</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18.75">
+    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18.75">
+    <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>1</v>
       </c>
@@ -2424,7 +2426,7 @@
         <v>58100972</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18.75">
+    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>1</v>
       </c>
@@ -2438,7 +2440,7 @@
         <v>63190339</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75">
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2452,7 +2454,7 @@
         <v>58049493</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75">
+    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -2466,15 +2468,15 @@
         <v>59332425</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75">
+    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
     </row>
-    <row r="92" spans="1:4" ht="18.75">
+    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18.75">
+    <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>1</v>
       </c>
@@ -2482,7 +2484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18.75">
+    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>1</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75">
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2510,7 +2512,7 @@
         <v>57633478</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75">
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -2524,7 +2526,7 @@
         <v>63690532</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75">
+    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2538,12 +2540,12 @@
         <v>59119811</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="18.75">
+    <row r="100" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="18.75">
+    <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>20</v>
       </c>
@@ -2554,7 +2556,7 @@
         <v>59007049</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="18.75">
+    <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>1</v>
       </c>
@@ -2568,7 +2570,7 @@
         <v>59575315</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75">
+    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2582,7 +2584,7 @@
         <v>57335365</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75">
+    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -2596,12 +2598,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="18.75">
+    <row r="107" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="18.75">
+    <row r="108" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -2612,7 +2614,7 @@
         <v>59083766</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75">
+    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -2626,7 +2628,7 @@
         <v>58695861</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -2640,7 +2642,7 @@
         <v>59519451</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3</v>
       </c>
@@ -2654,7 +2656,7 @@
         <v>59133997</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4</v>
       </c>
@@ -2668,12 +2670,12 @@
         <v>56244738</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="18.75">
+    <row r="115" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="18.75">
+    <row r="116" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>56446960</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -2698,7 +2700,7 @@
         <v>58578741</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2</v>
       </c>
@@ -2712,7 +2714,7 @@
         <v>59406022</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3</v>
       </c>
@@ -2726,7 +2728,7 @@
         <v>59500967</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4</v>
       </c>
@@ -2740,12 +2742,12 @@
         <v>63298999</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="18.75">
+    <row r="124" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>82</v>
       </c>
@@ -2753,7 +2755,7 @@
         <v>57235699</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>83</v>
       </c>
@@ -2761,12 +2763,12 @@
         <v>58911167</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="18.75">
+    <row r="129" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="18.75">
+    <row r="130" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -2777,7 +2779,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -2791,7 +2793,7 @@
         <v>53612370</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>62649880</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3</v>
       </c>
@@ -2819,7 +2821,7 @@
         <v>57831115</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
@@ -2833,7 +2835,7 @@
         <v>59602612</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5</v>
       </c>
@@ -2847,12 +2849,12 @@
         <v>67238646</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="18.75">
+    <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="18.75">
+    <row r="140" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -2863,7 +2865,7 @@
         <v>58826107</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>104</v>
       </c>
@@ -2874,7 +2876,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>105</v>
       </c>
@@ -2885,7 +2887,7 @@
         <v>59417226</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>106</v>
       </c>
@@ -2896,7 +2898,7 @@
         <v>59136033</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>107</v>
       </c>
@@ -2904,12 +2906,12 @@
         <v>10750433058</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18.75">
+    <row r="147" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>58669350</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>114</v>
       </c>
@@ -2931,7 +2933,7 @@
         <v>53683549</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>109</v>
       </c>
@@ -2942,7 +2944,7 @@
         <v>63566887</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>110</v>
       </c>
@@ -2953,7 +2955,7 @@
         <v>56472962</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>111</v>
       </c>
@@ -2964,27 +2966,27 @@
         <v>59675537</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>119</v>
       </c>
@@ -2996,14 +2998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -3017,7 +3019,7 @@
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>121</v>
       </c>
@@ -3049,7 +3051,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -3086,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>222</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -3160,7 +3162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>222</v>
       </c>
@@ -3197,7 +3199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -3234,7 +3236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -3308,7 +3310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -3345,7 +3347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -3382,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>222</v>
       </c>
@@ -3419,7 +3421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -3456,7 +3458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -3493,7 +3495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>222</v>
       </c>
@@ -3530,7 +3532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>222</v>
       </c>
@@ -3567,7 +3569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>222</v>
       </c>
@@ -3604,7 +3606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>222</v>
       </c>
@@ -3641,7 +3643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>222</v>
       </c>
@@ -3678,7 +3680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -3715,7 +3717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -3752,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -3789,7 +3791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>222</v>
       </c>
@@ -3826,7 +3828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>222</v>
       </c>
@@ -3863,7 +3865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>222</v>
       </c>
@@ -3900,7 +3902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>222</v>
       </c>
@@ -3937,7 +3939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -3974,7 +3976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>222</v>
       </c>
@@ -4011,7 +4013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>222</v>
       </c>
@@ -4048,7 +4050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>222</v>
       </c>
@@ -4085,7 +4087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75">
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>222</v>
       </c>
@@ -4122,7 +4124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>222</v>
       </c>
@@ -4159,7 +4161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>222</v>
       </c>
@@ -4196,7 +4198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>222</v>
       </c>
@@ -4233,7 +4235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>222</v>
       </c>
@@ -4270,7 +4272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>222</v>
       </c>
@@ -4307,7 +4309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>222</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75">
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>222</v>
       </c>
@@ -4381,7 +4383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -4418,7 +4420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>222</v>
       </c>
@@ -4455,7 +4457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>222</v>
       </c>
@@ -4492,7 +4494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>222</v>
       </c>
@@ -4529,7 +4531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>222</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>222</v>
       </c>
@@ -4603,7 +4605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>222</v>
       </c>
@@ -4640,7 +4642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>222</v>
       </c>
@@ -4677,7 +4679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75">
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>222</v>
       </c>
@@ -4714,7 +4716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75">
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>222</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75">
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>222</v>
       </c>
@@ -4788,7 +4790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>222</v>
       </c>
@@ -4825,7 +4827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -4862,7 +4864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>222</v>
       </c>
@@ -4899,7 +4901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>222</v>
       </c>
@@ -4936,7 +4938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>222</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>222</v>
       </c>
@@ -5010,7 +5012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>222</v>
       </c>
@@ -5047,7 +5049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75">
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -5084,7 +5086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="18.75">
+    <row r="57" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -5121,7 +5123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="18.75">
+    <row r="58" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>222</v>
       </c>
@@ -5158,7 +5160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="18.75">
+    <row r="59" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>222</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="18.75">
+    <row r="60" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>222</v>
       </c>
@@ -5232,7 +5234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="18.75">
+    <row r="61" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>222</v>
       </c>
@@ -5269,7 +5271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="18.75">
+    <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>222</v>
       </c>
@@ -5306,7 +5308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="18.75">
+    <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>222</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="18.75">
+    <row r="64" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>222</v>
       </c>
@@ -5380,7 +5382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75">
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>222</v>
       </c>
@@ -5417,7 +5419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75">
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>222</v>
       </c>
@@ -5454,7 +5456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75">
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>222</v>
       </c>
@@ -5491,7 +5493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75">
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>222</v>
       </c>
@@ -5528,7 +5530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75">
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>222</v>
       </c>
@@ -5565,7 +5567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75">
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>222</v>
       </c>
@@ -5602,7 +5604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75">
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>222</v>
       </c>
@@ -5639,7 +5641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75">
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>222</v>
       </c>
@@ -5676,7 +5678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75">
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>222</v>
       </c>
@@ -5713,7 +5715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75">
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>222</v>
       </c>
@@ -5750,7 +5752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75">
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>222</v>
       </c>
@@ -5787,7 +5789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="18.75">
+    <row r="76" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>222</v>
       </c>
@@ -5801,7 +5803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="18.75">
+    <row r="77" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>222</v>
       </c>
@@ -5815,7 +5817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="18.75">
+    <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>222</v>
       </c>
@@ -5829,7 +5831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="18.75">
+    <row r="79" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>222</v>
       </c>
@@ -5843,7 +5845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="18.75">
+    <row r="80" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>222</v>
       </c>
@@ -5857,7 +5859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="18.75">
+    <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>222</v>
       </c>
@@ -5871,7 +5873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18.75">
+    <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>222</v>
       </c>
@@ -5885,7 +5887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18.75">
+    <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>222</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18.75">
+    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>222</v>
       </c>
@@ -5913,7 +5915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18.75">
+    <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>222</v>
       </c>
@@ -5927,7 +5929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18.75">
+    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>222</v>
       </c>
@@ -5941,7 +5943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="18.75">
+    <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>222</v>
       </c>
@@ -5955,7 +5957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="18.75">
+    <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>222</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18.75">
+    <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>222</v>
       </c>
@@ -5983,7 +5985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18.75">
+    <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -5997,7 +5999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18.75">
+    <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>222</v>
       </c>
@@ -6011,7 +6013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18.75">
+    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>222</v>
       </c>
@@ -6025,7 +6027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18.75">
+    <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>222</v>
       </c>
@@ -6039,7 +6041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18.75">
+    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>222</v>
       </c>
@@ -6053,7 +6055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>222</v>
       </c>
@@ -6067,7 +6069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>222</v>
       </c>
@@ -6081,7 +6083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>222</v>
       </c>
@@ -6095,7 +6097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>222</v>
       </c>
